--- a/装修费用170107.xlsx
+++ b/装修费用170107.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="120">
   <si>
     <t>地砖</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -461,7 +461,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>定金1260</t>
+    <t>定金1260, 差3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热水器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>900/2300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排除砖10换8/未排除剩砖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩砖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墙砖2箱8块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小地砖5块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -604,7 +632,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -701,17 +729,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1007,27 +1044,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S43"/>
+  <dimension ref="A1:S44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="31"/>
-    <col min="2" max="2" width="19.125" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="1" max="1" width="19.125" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="9" max="9" width="9" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="C1" t="s">
+      <c r="B1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" t="s">
         <v>33</v>
       </c>
+      <c r="H1" s="34"/>
       <c r="J1" s="2" t="s">
         <v>53</v>
       </c>
@@ -1042,540 +1080,563 @@
       </c>
     </row>
     <row r="2" spans="1:13" s="17" customFormat="1">
-      <c r="A2" s="31"/>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="F2" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="11">
-        <f>SUM(C3:C15)</f>
-        <v>51587.5</v>
-      </c>
+      <c r="G2" s="11">
+        <f>SUM(B3:B17)</f>
+        <v>53287.5</v>
+      </c>
+      <c r="I2" s="34"/>
       <c r="J2" s="2">
-        <f>SUM(C3:C9)</f>
-        <v>41374</v>
+        <f>SUM(B3:B11)</f>
+        <v>43074</v>
       </c>
       <c r="K2" s="17">
-        <f>SUM(C11:C15)</f>
+        <f>SUM(B13:B17)</f>
         <v>10213.5</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="27">
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2">
+      <c r="B3" s="2">
         <v>26090</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="C3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="2">
+      <c r="D3" s="2">
         <f>26090+20</f>
         <v>26110</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H3" s="5">
-        <f>SUM(C3:C9)</f>
-        <v>41374</v>
+      <c r="G3" s="5">
+        <f>SUM(B3:B11)</f>
+        <v>43074</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2">
+      <c r="B4" s="2">
         <v>14371</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="2">
+        <v>12263</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="7">
+        <f>SUM(B13:B17)</f>
+        <v>10213.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="18" customFormat="1">
+      <c r="A5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="2">
+        <v>-2000</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="35">
+        <v>0</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="22">
+        <f>SUM(B20:B43)</f>
+        <v>96873</v>
+      </c>
+      <c r="I5" s="34"/>
+    </row>
+    <row r="6" spans="1:13" s="16" customFormat="1">
+      <c r="A6" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="12">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="35"/>
+      <c r="I6" s="34"/>
+    </row>
+    <row r="7" spans="1:13" s="16" customFormat="1">
+      <c r="A7" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="12">
+        <v>700</v>
+      </c>
+      <c r="D7" s="35"/>
+      <c r="I7" s="34"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="28">
+        <v>1000</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="F8" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8">
+        <f>G2+G5</f>
+        <v>150160.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1355</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="G4" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="7">
-        <f>SUM(C11:C15)</f>
-        <v>10213.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="18" customFormat="1">
-      <c r="A5" s="31"/>
-      <c r="B5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="2">
-        <v>-2000</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="G5" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="H5" s="22">
-        <f>SUM(C18:C42)</f>
-        <v>94052</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="B6" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="28">
-        <v>1000</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="H6">
-        <f>H2+H5</f>
-        <v>145639.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1355</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="B8" s="27" t="s">
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="28">
+      <c r="B10" s="28">
         <v>154</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28">
+      <c r="C10" s="28"/>
+      <c r="D10" s="28">
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="B9" s="27" t="s">
+    <row r="11" spans="1:13">
+      <c r="A11" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="28">
+      <c r="B11" s="28">
         <v>404</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28">
+      <c r="C11" s="28"/>
+      <c r="D11" s="28">
         <v>404</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="17" customFormat="1">
-      <c r="A10" s="31"/>
-      <c r="B10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="B11" s="8" t="s">
+    <row r="12" spans="1:13" s="17" customFormat="1">
+      <c r="A12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="I12" s="34"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="8">
+      <c r="B13" s="8">
         <f>7500+200</f>
         <v>7700</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="C13" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="8">
+      <c r="D13" s="8">
         <v>7700</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="25" customFormat="1">
-      <c r="A12" s="31"/>
-      <c r="B12" s="26" t="s">
+    <row r="14" spans="1:13" s="25" customFormat="1">
+      <c r="A14" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="26">
+      <c r="B14" s="26">
         <v>195</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26">
+      <c r="C14" s="26"/>
+      <c r="D14" s="26">
         <v>195</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="27">
-      <c r="B13" s="6" t="s">
+      <c r="I14" s="34"/>
+    </row>
+    <row r="15" spans="1:13" ht="27">
+      <c r="A15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="7">
+      <c r="B15" s="7">
         <f>146.5+74</f>
         <v>220.5</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7">
         <f>146.5+74</f>
         <v>220.5</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="B14" s="9" t="s">
+    <row r="16" spans="1:13">
+      <c r="A16" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="12">
+      <c r="B16" s="12">
         <v>1500</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="B15" s="9" t="s">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="11">
+      <c r="B17" s="11">
         <v>598</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="G15" t="s">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="F17" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="17" customFormat="1">
-      <c r="A16" s="31"/>
-      <c r="B16" s="9"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:12" s="17" customFormat="1">
-      <c r="A17" s="31"/>
-      <c r="B17" s="20" t="s">
+    <row r="18" spans="1:12" s="17" customFormat="1">
+      <c r="A18" s="9"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="I18" s="34"/>
+    </row>
+    <row r="19" spans="1:12" s="17" customFormat="1">
+      <c r="A19" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="B18" s="8" t="s">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="I19" s="34"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="8">
+      <c r="B20" s="8">
         <v>3400</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="C20" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="8">
+      <c r="D20" s="8">
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="27">
-      <c r="B19" s="6" t="s">
+    <row r="21" spans="1:12" s="34" customFormat="1">
+      <c r="A21" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="8">
+        <v>3200</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="8">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="27">
+      <c r="A22" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="7">
+      <c r="B22" s="7">
         <v>11000</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="C22" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="7">
+      <c r="D22" s="7">
         <v>1100</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="49.5" customHeight="1">
-      <c r="B20" s="3" t="s">
+    <row r="23" spans="1:12" ht="49.5" customHeight="1">
+      <c r="A23" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C20">
+      <c r="B23">
         <f>89+189</f>
         <v>278</v>
       </c>
-      <c r="G20" s="32" t="s">
+      <c r="F23" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="B21" s="14" t="s">
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C21">
+      <c r="B24">
         <v>1299</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="F24" s="13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
-      <c r="B22" s="3" t="s">
+    <row r="25" spans="1:12">
+      <c r="A25" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="12">
+      <c r="B25" s="12">
         <v>10000</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
-      <c r="B23" s="3" t="s">
+    <row r="26" spans="1:12">
+      <c r="A26" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C23">
+      <c r="B26">
         <f>4399*3</f>
         <v>13197</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="F26" s="13" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
-      <c r="B24" s="3" t="s">
+    <row r="27" spans="1:12">
+      <c r="A27" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="13">
+      <c r="B27" s="13">
         <f>4299*3</f>
         <v>12897</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="F27" s="13" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
-      <c r="B25" s="21" t="s">
+    <row r="28" spans="1:12">
+      <c r="A28" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C25">
+      <c r="B28">
         <v>2000</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="F28" s="22" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="16" customFormat="1">
-      <c r="A26" s="31"/>
-      <c r="B26" s="21" t="s">
+    <row r="29" spans="1:12" s="16" customFormat="1">
+      <c r="A29" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="16">
+      <c r="B29" s="16">
         <v>600</v>
       </c>
-      <c r="G26" s="22" t="s">
+      <c r="F29" s="22" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" s="16" customFormat="1">
-      <c r="A27" s="31"/>
-      <c r="B27" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="16" customFormat="1">
-      <c r="A28" s="31"/>
-      <c r="B28" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="12">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" s="16" customFormat="1">
-      <c r="A29" s="31"/>
-      <c r="B29" s="21" t="s">
+      <c r="I29" s="34"/>
+    </row>
+    <row r="30" spans="1:12" s="16" customFormat="1">
+      <c r="A30" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="23">
+      <c r="B30" s="23">
         <v>1200</v>
       </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="B30" s="21" t="s">
+      <c r="I30" s="34"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="24">
+      <c r="B31" s="24">
         <v>3850</v>
       </c>
-      <c r="G30" s="22" t="s">
+      <c r="F31" s="22" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
-      <c r="B31" s="21" t="s">
+    <row r="32" spans="1:12">
+      <c r="A32" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="24">
+      <c r="B32" s="24">
         <v>1250</v>
       </c>
-      <c r="G31" s="22" t="s">
+      <c r="F32" s="22" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
-      <c r="B32" s="21" t="s">
+    <row r="33" spans="1:19">
+      <c r="A33" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="24">
+      <c r="B33" s="24">
         <v>2259</v>
       </c>
-      <c r="G32" s="22" t="s">
+      <c r="F33" s="22" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:19">
-      <c r="B33" s="19" t="s">
+    <row r="34" spans="1:19">
+      <c r="A34" s="19" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:19">
-      <c r="B34" s="21" t="s">
+    <row r="35" spans="1:19">
+      <c r="A35" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C34">
+      <c r="B35">
         <v>600</v>
       </c>
-      <c r="G34" s="22" t="s">
+      <c r="F35" s="22" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="1:19" s="30" customFormat="1">
-      <c r="A35" s="31"/>
-      <c r="B35" s="29" t="s">
+    <row r="36" spans="1:19" s="30" customFormat="1">
+      <c r="A36" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="C35" s="23">
+      <c r="B36" s="23">
         <v>3000</v>
       </c>
-    </row>
-    <row r="36" spans="1:19">
-      <c r="A36" s="11">
+      <c r="I36" s="34"/>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="A37" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="11">
         <f>1299*2</f>
         <v>2598</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C36" s="33">
-        <v>4260</v>
-      </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="33">
+      <c r="C37" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" s="38">
         <v>1260</v>
       </c>
-      <c r="G36" s="13" t="s">
+      <c r="F37" s="13" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="82.5" customHeight="1">
-      <c r="A37">
+    <row r="38" spans="1:19" ht="82.5" customHeight="1">
+      <c r="A38" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="32">
         <f>999+299*2+359+89+299+339</f>
         <v>2683</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="E37" s="33"/>
-      <c r="G37" s="32" t="s">
+      <c r="C38" s="36"/>
+      <c r="D38" s="38"/>
+      <c r="F38" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-      <c r="N37" s="33"/>
-      <c r="O37" s="33"/>
-      <c r="P37" s="33"/>
-      <c r="Q37" s="33"/>
-      <c r="R37" s="33"/>
-      <c r="S37" s="33"/>
-    </row>
-    <row r="38" spans="1:19">
-      <c r="A38" s="12">
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="38"/>
+      <c r="N38" s="38"/>
+      <c r="O38" s="38"/>
+      <c r="P38" s="38"/>
+      <c r="Q38" s="38"/>
+      <c r="R38" s="38"/>
+      <c r="S38" s="38"/>
+    </row>
+    <row r="39" spans="1:19">
+      <c r="A39" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="12">
         <v>300</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="1:19">
-      <c r="B39" s="21" t="s">
+      <c r="C39" s="36"/>
+      <c r="D39" s="38"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:19">
+      <c r="A40" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C39">
+      <c r="B40">
         <v>3579</v>
       </c>
-      <c r="G39" s="22" t="s">
+      <c r="F40" s="22" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:19">
-      <c r="B40" s="21" t="s">
+    <row r="41" spans="1:19">
+      <c r="A41" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C40">
+      <c r="B41">
         <v>1599</v>
       </c>
-      <c r="G40" s="22" t="s">
+      <c r="F41" s="22" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:19">
-      <c r="B41" s="3" t="s">
+    <row r="42" spans="1:19">
+      <c r="A42" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C41">
+      <c r="B42">
         <v>3598</v>
       </c>
-      <c r="G41" s="22" t="s">
+      <c r="F42" s="22" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="27.75" customHeight="1">
-      <c r="B42" s="3" t="s">
+    <row r="43" spans="1:19" ht="27.75" customHeight="1">
+      <c r="A43" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C42" s="22">
+      <c r="B43" s="22">
         <f>7488+2499*2</f>
         <v>12486</v>
       </c>
-      <c r="G42" s="32" t="s">
+      <c r="F43" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="32"/>
-    </row>
-    <row r="43" spans="1:19">
-      <c r="C43">
-        <f>SUM(C3:C42)</f>
-        <v>145639.5</v>
-      </c>
-      <c r="E43">
-        <f>SUM(E3:E42)</f>
-        <v>38143.5</v>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
+    </row>
+    <row r="44" spans="1:19">
+      <c r="B44">
+        <f>SUM(B3:B43)</f>
+        <v>150160.5</v>
+      </c>
+      <c r="D44">
+        <f>SUM(D3:D43)</f>
+        <v>53606.5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="G37:S37"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="E36:E38"/>
+  <mergeCells count="6">
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="F38:S38"/>
+    <mergeCell ref="F23:L23"/>
+    <mergeCell ref="F43:J43"/>
+    <mergeCell ref="D37:D39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2112,15 +2173,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -2128,12 +2193,23 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2168,10 +2244,10 @@
         <v>14</v>
       </c>
       <c r="E1">
-        <f>C1*D1</f>
+        <f t="shared" ref="E1:E7" si="0">C1*D1</f>
         <v>476</v>
       </c>
-      <c r="G1" s="35">
+      <c r="G1" s="36">
         <f>SUM(E1:E7)</f>
         <v>761</v>
       </c>
@@ -2187,10 +2263,10 @@
         <v>24</v>
       </c>
       <c r="E2" s="31">
-        <f>C2*D2</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="G2" s="35"/>
+      <c r="G2" s="36"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="31" t="s">
@@ -2203,10 +2279,10 @@
         <v>7.6</v>
       </c>
       <c r="E3" s="31">
-        <f>C3*D3</f>
+        <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="G3" s="35"/>
+      <c r="G3" s="36"/>
     </row>
     <row r="4" spans="1:7">
       <c r="B4" s="31" t="s">
@@ -2219,10 +2295,10 @@
         <v>17</v>
       </c>
       <c r="E4" s="31">
-        <f>C4*D4</f>
+        <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="G4" s="35"/>
+      <c r="G4" s="36"/>
     </row>
     <row r="5" spans="1:7">
       <c r="B5" s="31" t="s">
@@ -2235,10 +2311,10 @@
         <v>17</v>
       </c>
       <c r="E5" s="31">
-        <f>C5*D5</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="G5" s="35"/>
+      <c r="G5" s="36"/>
     </row>
     <row r="6" spans="1:7">
       <c r="B6" s="31" t="s">
@@ -2251,10 +2327,10 @@
         <v>10</v>
       </c>
       <c r="E6" s="31">
-        <f>C6*D6</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="G6" s="35"/>
+      <c r="G6" s="36"/>
     </row>
     <row r="7" spans="1:7">
       <c r="B7" s="31" t="s">
@@ -2267,10 +2343,10 @@
         <v>15</v>
       </c>
       <c r="E7" s="31">
-        <f>C7*D7</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G7" s="35"/>
+      <c r="G7" s="36"/>
     </row>
     <row r="8" spans="1:7">
       <c r="E8" s="31"/>
@@ -2286,7 +2362,7 @@
         <v>650</v>
       </c>
       <c r="E9" s="31">
-        <f>C9*D9</f>
+        <f t="shared" ref="E9:E17" si="1">C9*D9</f>
         <v>1300</v>
       </c>
     </row>
@@ -2301,10 +2377,10 @@
         <v>700</v>
       </c>
       <c r="E10" s="31">
-        <f>C10*D10</f>
+        <f t="shared" si="1"/>
         <v>700</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F10" s="36">
         <f>SUM(E10:E17)</f>
         <v>2270</v>
       </c>
@@ -2320,10 +2396,10 @@
         <v>280</v>
       </c>
       <c r="E11" s="31">
-        <f>C11*D11</f>
+        <f t="shared" si="1"/>
         <v>280</v>
       </c>
-      <c r="F11" s="35"/>
+      <c r="F11" s="36"/>
     </row>
     <row r="12" spans="1:7">
       <c r="B12" s="31" t="s">
@@ -2336,10 +2412,10 @@
         <v>280</v>
       </c>
       <c r="E12" s="31">
-        <f>C12*D12</f>
+        <f t="shared" si="1"/>
         <v>560</v>
       </c>
-      <c r="F12" s="35"/>
+      <c r="F12" s="36"/>
       <c r="G12" s="31" t="s">
         <v>103</v>
       </c>
@@ -2355,10 +2431,10 @@
         <v>240</v>
       </c>
       <c r="E13" s="31">
-        <f>C13*D13</f>
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="F13" s="35"/>
+      <c r="F13" s="36"/>
     </row>
     <row r="14" spans="1:7" s="31" customFormat="1">
       <c r="B14" s="31" t="s">
@@ -2371,10 +2447,10 @@
         <v>200</v>
       </c>
       <c r="E14" s="31">
-        <f>C14*D14</f>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="F14" s="35"/>
+      <c r="F14" s="36"/>
     </row>
     <row r="15" spans="1:7">
       <c r="B15" s="31" t="s">
@@ -2387,13 +2463,13 @@
         <v>80</v>
       </c>
       <c r="E15" s="31">
-        <f>C15*D15</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="F15" s="35"/>
+      <c r="F15" s="36"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="36" t="s">
         <v>107</v>
       </c>
       <c r="B16" s="31" t="s">
@@ -2406,13 +2482,13 @@
         <v>80</v>
       </c>
       <c r="E16" s="31">
-        <f>C16*D16</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="F16" s="35"/>
+      <c r="F16" s="36"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="35"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="31" t="s">
         <v>109</v>
       </c>
@@ -2423,19 +2499,19 @@
         <v>130</v>
       </c>
       <c r="E17" s="31">
-        <f>C17*D17</f>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35" t="s">
+      <c r="F17" s="36"/>
+      <c r="G17" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="H17" s="35"/>
+      <c r="H17" s="36"/>
     </row>
     <row r="18" spans="1:8" s="31" customFormat="1">
-      <c r="A18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
+      <c r="A18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
     </row>
     <row r="19" spans="1:8">
       <c r="E19">

--- a/装修费用170107.xlsx
+++ b/装修费用170107.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -12,12 +12,12 @@
     <sheet name="材料更换" sheetId="3" r:id="rId3"/>
     <sheet name="灯-开关-浴霸" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="125">
   <si>
     <t>地砖</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -215,10 +215,6 @@
   </si>
   <si>
     <t>冰箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门*3+推拉门+包口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -293,10 +289,6 @@
     <t>https://item.jd.com/1330332.html</t>
   </si>
   <si>
-    <t>净化器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://item.jd.com/1500757.html</t>
   </si>
   <si>
@@ -490,6 +482,34 @@
   </si>
   <si>
     <t>小地砖5块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>儿童书桌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>床垫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含1床垫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门*3++包口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推拉门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8400 预付5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净化器/净水器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -632,7 +652,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -678,23 +698,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -702,40 +761,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -756,6 +788,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -767,7 +867,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1044,10 +1144,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S44"/>
+  <dimension ref="A1:S47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1055,47 +1155,47 @@
     <col min="1" max="1" width="19.125" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="9" max="9" width="9" style="34"/>
+    <col min="9" max="9" width="9" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D1" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="34"/>
+      <c r="H1" s="33"/>
       <c r="J1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="8" t="s">
-        <v>54</v>
-      </c>
       <c r="L1" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="M1" s="26" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="17" customFormat="1">
+        <v>59</v>
+      </c>
+      <c r="M1" s="25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="16" customFormat="1">
       <c r="A2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>75</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>77</v>
       </c>
       <c r="G2" s="11">
         <f>SUM(B3:B17)</f>
         <v>53287.5</v>
       </c>
-      <c r="I2" s="34"/>
+      <c r="I2" s="33"/>
       <c r="J2" s="2">
         <f>SUM(B3:B11)</f>
         <v>43074</v>
       </c>
-      <c r="K2" s="17">
+      <c r="K2" s="16">
         <f>SUM(B13:B17)</f>
         <v>10213.5</v>
       </c>
@@ -1115,7 +1215,7 @@
         <v>26110</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G3" s="5">
         <f>SUM(B3:B11)</f>
@@ -1130,74 +1230,74 @@
         <v>14371</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D4" s="2">
         <v>12263</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G4" s="7">
         <f>SUM(B13:B17)</f>
         <v>10213.5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="18" customFormat="1">
+    <row r="5" spans="1:13" s="17" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B5" s="2">
         <v>-2000</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="35">
+      <c r="D5" s="39">
         <v>0</v>
       </c>
-      <c r="F5" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="G5" s="22">
-        <f>SUM(B20:B43)</f>
-        <v>96873</v>
-      </c>
-      <c r="I5" s="34"/>
-    </row>
-    <row r="6" spans="1:13" s="16" customFormat="1">
-      <c r="A6" s="21" t="s">
-        <v>73</v>
+      <c r="F5" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="21">
+        <f>SUM(B20:B46)</f>
+        <v>105873</v>
+      </c>
+      <c r="I5" s="33"/>
+    </row>
+    <row r="6" spans="1:13" s="15" customFormat="1">
+      <c r="A6" s="20" t="s">
+        <v>71</v>
       </c>
       <c r="B6" s="12">
         <v>1000</v>
       </c>
-      <c r="D6" s="35"/>
-      <c r="I6" s="34"/>
-    </row>
-    <row r="7" spans="1:13" s="16" customFormat="1">
-      <c r="A7" s="15" t="s">
-        <v>74</v>
+      <c r="D6" s="39"/>
+      <c r="I6" s="33"/>
+    </row>
+    <row r="7" spans="1:13" s="15" customFormat="1">
+      <c r="A7" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="B7" s="12">
         <v>700</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="I7" s="34"/>
+      <c r="D7" s="39"/>
+      <c r="I7" s="33"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="28">
+      <c r="A8" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="27">
         <v>1000</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="F8" s="34" t="s">
-        <v>115</v>
+      <c r="F8" s="33" t="s">
+        <v>113</v>
       </c>
       <c r="G8">
         <f>G2+G5</f>
-        <v>150160.5</v>
+        <v>159160.5</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1213,34 +1313,34 @@
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="27">
+        <v>154</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="28">
-        <v>154</v>
-      </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="28">
+      <c r="B11" s="27">
         <v>404</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28">
+      <c r="C11" s="27"/>
+      <c r="D11" s="27">
         <v>404</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="17" customFormat="1">
+    <row r="12" spans="1:13" s="16" customFormat="1">
       <c r="A12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="I12" s="34"/>
+      <c r="I12" s="33"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="8" t="s">
@@ -1257,18 +1357,18 @@
         <v>7700</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="25" customFormat="1">
-      <c r="A14" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="B14" s="26">
+    <row r="14" spans="1:13" s="24" customFormat="1">
+      <c r="A14" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="25">
         <v>195</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26">
+      <c r="C14" s="25"/>
+      <c r="D14" s="25">
         <v>195</v>
       </c>
-      <c r="I14" s="34"/>
+      <c r="I14" s="33"/>
     </row>
     <row r="15" spans="1:13" ht="27">
       <c r="A15" s="6" t="s">
@@ -1286,7 +1386,7 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" s="12">
         <v>1500</v>
@@ -1296,7 +1396,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" s="11">
         <v>598</v>
@@ -1304,22 +1404,22 @@
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="F17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="17" customFormat="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="16" customFormat="1">
       <c r="A18" s="9"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="I18" s="34"/>
-    </row>
-    <row r="19" spans="1:12" s="17" customFormat="1">
-      <c r="A19" s="20" t="s">
-        <v>76</v>
+      <c r="I18" s="33"/>
+    </row>
+    <row r="19" spans="1:12" s="16" customFormat="1">
+      <c r="A19" s="19" t="s">
+        <v>74</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="I19" s="34"/>
+      <c r="I19" s="33"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="8" t="s">
@@ -1335,15 +1435,15 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="34" customFormat="1">
+    <row r="21" spans="1:12" s="33" customFormat="1">
       <c r="A21" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B21" s="8">
         <v>3200</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D21" s="8">
         <v>3200</v>
@@ -1365,278 +1465,318 @@
     </row>
     <row r="23" spans="1:12" ht="49.5" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B23">
         <f>89+189</f>
         <v>278</v>
       </c>
-      <c r="F23" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
+      <c r="F23" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="14" t="s">
-        <v>67</v>
+      <c r="A24" s="36" t="s">
+        <v>124</v>
       </c>
       <c r="B24">
         <v>1299</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="12">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="37" customFormat="1">
+      <c r="A25" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" s="7">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="12">
         <v>10000</v>
       </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="3" t="s">
+      <c r="C26" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="23">
+        <v>1250</v>
+      </c>
+      <c r="D27" s="40">
+        <v>26270</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="35" customFormat="1">
+      <c r="A28" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B26">
+      <c r="B28" s="35">
         <f>4399*3</f>
         <v>13197</v>
       </c>
-      <c r="F26" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="3" t="s">
+      <c r="C28" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="40"/>
+      <c r="F28" s="35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="23">
+        <v>3850</v>
+      </c>
+      <c r="D29" s="40"/>
+      <c r="F29" s="21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="35" customFormat="1">
+      <c r="A30" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30" s="40"/>
+    </row>
+    <row r="31" spans="1:12" s="35" customFormat="1">
+      <c r="A31" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B31" s="35">
         <f>4299*3</f>
         <v>12897</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="D31" s="40"/>
+      <c r="F31" s="35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="35" customFormat="1">
+      <c r="A32" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="35">
+        <v>3000</v>
+      </c>
+      <c r="D32" s="38"/>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="A33" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33">
+        <v>2000</v>
+      </c>
+      <c r="D33" s="38"/>
+      <c r="F33" s="21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" s="15" customFormat="1">
+      <c r="A34" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="15">
+        <v>600</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="I34" s="33"/>
+    </row>
+    <row r="35" spans="1:19" s="15" customFormat="1">
+      <c r="A35" s="20" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28">
-        <v>2000</v>
-      </c>
-      <c r="F28" s="22" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" s="16" customFormat="1">
-      <c r="A29" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="B29" s="16">
+      <c r="B35" s="22">
+        <v>1200</v>
+      </c>
+      <c r="I35" s="33"/>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="23">
+        <v>2259</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="A37" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
+      <c r="A38" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38">
         <v>600</v>
       </c>
-      <c r="F29" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="I29" s="34"/>
-    </row>
-    <row r="30" spans="1:12" s="16" customFormat="1">
-      <c r="A30" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30" s="23">
-        <v>1200</v>
-      </c>
-      <c r="I30" s="34"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="24">
-        <v>3850</v>
-      </c>
-      <c r="F31" s="22" t="s">
+      <c r="F38" s="21" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="24">
-        <v>1250</v>
-      </c>
-      <c r="F32" s="22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19">
-      <c r="A33" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="24">
-        <v>2259</v>
-      </c>
-      <c r="F33" s="22" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19">
-      <c r="A34" s="19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19">
-      <c r="A35" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35">
-        <v>600</v>
-      </c>
-      <c r="F35" s="22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" s="30" customFormat="1">
-      <c r="A36" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="B36" s="23">
+    <row r="39" spans="1:19" s="29" customFormat="1">
+      <c r="A39" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="22">
         <v>3000</v>
       </c>
-      <c r="I36" s="34"/>
-    </row>
-    <row r="37" spans="1:19">
-      <c r="A37" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B37" s="11">
+      <c r="I39" s="33"/>
+    </row>
+    <row r="40" spans="1:19">
+      <c r="A40" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="11">
         <f>1299*2</f>
         <v>2598</v>
       </c>
-      <c r="C37" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="D37" s="38">
+      <c r="C40" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="D40" s="42">
         <v>1260</v>
       </c>
-      <c r="F37" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" ht="82.5" customHeight="1">
-      <c r="A38" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B38" s="32">
+      <c r="F40" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="82.5" customHeight="1">
+      <c r="A41" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="31">
         <f>999+299*2+359+89+299+339</f>
         <v>2683</v>
       </c>
-      <c r="C38" s="36"/>
-      <c r="D38" s="38"/>
-      <c r="F38" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="38"/>
-      <c r="M38" s="38"/>
-      <c r="N38" s="38"/>
-      <c r="O38" s="38"/>
-      <c r="P38" s="38"/>
-      <c r="Q38" s="38"/>
-      <c r="R38" s="38"/>
-      <c r="S38" s="38"/>
-    </row>
-    <row r="39" spans="1:19">
-      <c r="A39" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B39" s="12">
-        <v>300</v>
-      </c>
-      <c r="C39" s="36"/>
-      <c r="D39" s="38"/>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="1:19">
-      <c r="A40" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40">
-        <v>3579</v>
-      </c>
-      <c r="F40" s="22" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19">
-      <c r="A41" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41">
-        <v>1599</v>
-      </c>
-      <c r="F41" s="22" t="s">
-        <v>86</v>
-      </c>
+      <c r="C41" s="40"/>
+      <c r="D41" s="42"/>
+      <c r="F41" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="42"/>
+      <c r="N41" s="42"/>
+      <c r="O41" s="42"/>
+      <c r="P41" s="42"/>
+      <c r="Q41" s="42"/>
+      <c r="R41" s="42"/>
+      <c r="S41" s="42"/>
     </row>
     <row r="42" spans="1:19">
       <c r="A42" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" s="12">
+        <v>300</v>
+      </c>
+      <c r="C42" s="40"/>
+      <c r="D42" s="42"/>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="1:19">
+      <c r="A43" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>3579</v>
+      </c>
+      <c r="F43" s="21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
+      <c r="A44" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44">
+        <v>1599</v>
+      </c>
+      <c r="F44" s="21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
+      <c r="A45" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B42">
+      <c r="B45">
         <v>3598</v>
       </c>
-      <c r="F42" s="22" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" ht="27.75" customHeight="1">
-      <c r="A43" s="3" t="s">
+      <c r="F45" s="21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="27.75" customHeight="1">
+      <c r="A46" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="22">
+      <c r="B46" s="21">
         <f>7488+2499*2</f>
         <v>12486</v>
       </c>
-      <c r="F43" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="37"/>
-    </row>
-    <row r="44" spans="1:19">
-      <c r="B44">
-        <f>SUM(B3:B43)</f>
-        <v>150160.5</v>
-      </c>
-      <c r="D44">
-        <f>SUM(D3:D43)</f>
-        <v>53606.5</v>
+      <c r="F46" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="G46" s="41"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="41"/>
+    </row>
+    <row r="47" spans="1:19">
+      <c r="B47">
+        <f>SUM(B3:B46)</f>
+        <v>159160.5</v>
+      </c>
+      <c r="D47">
+        <f>SUM(D3:D46)</f>
+        <v>84876.5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="D5:D7"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="F38:S38"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="F41:S41"/>
     <mergeCell ref="F23:L23"/>
-    <mergeCell ref="F43:J43"/>
-    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="F46:J46"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="D27:D31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2202,14 +2342,14 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="33" t="s">
         <v>117</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2229,13 +2369,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="31" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="30" customWidth="1"/>
     <col min="2" max="2" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="B1" s="31" t="s">
-        <v>94</v>
+      <c r="B1" s="30" t="s">
+        <v>92</v>
       </c>
       <c r="C1">
         <v>34</v>
@@ -2247,14 +2387,14 @@
         <f t="shared" ref="E1:E7" si="0">C1*D1</f>
         <v>476</v>
       </c>
-      <c r="G1" s="36">
+      <c r="G1" s="40">
         <f>SUM(E1:E7)</f>
         <v>761</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="B2" s="31" t="s">
-        <v>95</v>
+      <c r="B2" s="30" t="s">
+        <v>93</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2262,15 +2402,15 @@
       <c r="D2">
         <v>24</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="30">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="G2" s="36"/>
+      <c r="G2" s="40"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="B3" s="31" t="s">
-        <v>96</v>
+      <c r="B3" s="30" t="s">
+        <v>94</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -2278,15 +2418,15 @@
       <c r="D3">
         <v>7.6</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="30">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="G3" s="36"/>
+      <c r="G3" s="40"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="B4" s="31" t="s">
-        <v>97</v>
+      <c r="B4" s="30" t="s">
+        <v>95</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -2294,14 +2434,14 @@
       <c r="D4">
         <v>17</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="30">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="G4" s="36"/>
+      <c r="G4" s="40"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="30" t="s">
         <v>42</v>
       </c>
       <c r="C5">
@@ -2310,15 +2450,15 @@
       <c r="D5">
         <v>17</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="30">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="G5" s="36"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="B6" s="31" t="s">
-        <v>98</v>
+      <c r="B6" s="30" t="s">
+        <v>96</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -2326,15 +2466,15 @@
       <c r="D6">
         <v>10</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="30">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="G6" s="36"/>
+      <c r="G6" s="40"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="B7" s="31" t="s">
-        <v>99</v>
+      <c r="B7" s="30" t="s">
+        <v>97</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -2342,18 +2482,18 @@
       <c r="D7">
         <v>15</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="30">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G7" s="36"/>
+      <c r="G7" s="40"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="E8" s="31"/>
+      <c r="E8" s="30"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="31" t="s">
-        <v>100</v>
+      <c r="B9" s="30" t="s">
+        <v>98</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -2361,14 +2501,14 @@
       <c r="D9">
         <v>650</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="30">
         <f t="shared" ref="E9:E17" si="1">C9*D9</f>
         <v>1300</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="B10" s="31" t="s">
-        <v>101</v>
+      <c r="B10" s="30" t="s">
+        <v>99</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2376,18 +2516,18 @@
       <c r="D10">
         <v>700</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="30">
         <f t="shared" si="1"/>
         <v>700</v>
       </c>
-      <c r="F10" s="36">
+      <c r="F10" s="40">
         <f>SUM(E10:E17)</f>
         <v>2270</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="B11" s="31" t="s">
-        <v>102</v>
+      <c r="B11" s="30" t="s">
+        <v>100</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2395,15 +2535,15 @@
       <c r="D11">
         <v>280</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="30">
         <f t="shared" si="1"/>
         <v>280</v>
       </c>
-      <c r="F11" s="36"/>
+      <c r="F11" s="40"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="B12" s="31" t="s">
-        <v>104</v>
+      <c r="B12" s="30" t="s">
+        <v>102</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -2411,18 +2551,18 @@
       <c r="D12">
         <v>280</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="30">
         <f t="shared" si="1"/>
         <v>560</v>
       </c>
-      <c r="F12" s="36"/>
-      <c r="G12" s="31" t="s">
+      <c r="F12" s="40"/>
+      <c r="G12" s="30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" s="30" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="B13" s="31" t="s">
-        <v>105</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2430,31 +2570,31 @@
       <c r="D13">
         <v>240</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="30">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="F13" s="36"/>
-    </row>
-    <row r="14" spans="1:7" s="31" customFormat="1">
-      <c r="B14" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="C14" s="31">
+      <c r="F13" s="40"/>
+    </row>
+    <row r="14" spans="1:7" s="30" customFormat="1">
+      <c r="B14" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="30">
         <v>1</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="30">
         <v>200</v>
       </c>
-      <c r="E14" s="31">
+      <c r="E14" s="30">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="F14" s="36"/>
+      <c r="F14" s="40"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="B15" s="31" t="s">
-        <v>106</v>
+      <c r="B15" s="30" t="s">
+        <v>104</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2462,18 +2602,18 @@
       <c r="D15">
         <v>80</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="30">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="F15" s="36"/>
+      <c r="F15" s="40"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>108</v>
+      <c r="A16" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>106</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2481,16 +2621,16 @@
       <c r="D16">
         <v>80</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="30">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="F16" s="36"/>
+      <c r="F16" s="40"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="36"/>
-      <c r="B17" s="31" t="s">
-        <v>109</v>
+      <c r="A17" s="40"/>
+      <c r="B17" s="30" t="s">
+        <v>107</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2498,20 +2638,20 @@
       <c r="D17">
         <v>130</v>
       </c>
-      <c r="E17" s="31">
+      <c r="E17" s="30">
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="H17" s="36"/>
-    </row>
-    <row r="18" spans="1:8" s="31" customFormat="1">
-      <c r="A18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" s="40"/>
+    </row>
+    <row r="18" spans="1:8" s="30" customFormat="1">
+      <c r="A18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
     </row>
     <row r="19" spans="1:8">
       <c r="E19">

--- a/装修费用170107.xlsx
+++ b/装修费用170107.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -12,7 +12,7 @@
     <sheet name="材料更换" sheetId="3" r:id="rId3"/>
     <sheet name="灯-开关-浴霸" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -516,7 +516,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="14">
     <font>
       <sz val="11"/>
@@ -652,7 +652,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -768,6 +768,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -856,6 +865,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -902,7 +919,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -934,9 +951,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -968,6 +986,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1143,64 +1162,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19.125" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="9" max="9" width="9" style="33"/>
+    <col min="5" max="5" width="9" style="41"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="10" max="10" width="9" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="B1" t="s">
         <v>51</v>
       </c>
       <c r="D1" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="33"/>
-      <c r="J1" s="2" t="s">
+      <c r="I1" s="33"/>
+      <c r="K1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="N1" s="25" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="16" customFormat="1">
+    <row r="2" spans="1:14" s="16" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="E2" s="41"/>
+      <c r="G2" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="11">
+      <c r="H2" s="11">
         <f>SUM(B3:B17)</f>
         <v>53287.5</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="2">
+      <c r="J2" s="33"/>
+      <c r="K2" s="2">
         <f>SUM(B3:B11)</f>
         <v>43074</v>
       </c>
-      <c r="K2" s="16">
+      <c r="L2" s="16">
         <f>SUM(B13:B17)</f>
         <v>10213.5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="27">
+    <row r="3" spans="1:14" ht="27">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1214,15 +1235,16 @@
         <f>26090+20</f>
         <v>26110</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="2"/>
+      <c r="G3" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="5">
+      <c r="H3" s="5">
         <f>SUM(B3:B11)</f>
         <v>43074</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1235,15 +1257,16 @@
       <c r="D4" s="2">
         <v>12263</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="E4" s="2"/>
+      <c r="G4" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="7">
+      <c r="H4" s="7">
         <f>SUM(B13:B17)</f>
         <v>10213.5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="17" customFormat="1">
+    <row r="5" spans="1:14" s="17" customFormat="1">
       <c r="A5" s="2" t="s">
         <v>76</v>
       </c>
@@ -1251,39 +1274,42 @@
         <v>-2000</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="39">
+      <c r="D5" s="42">
         <v>0</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="E5" s="39"/>
+      <c r="G5" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="G5" s="21">
+      <c r="H5" s="21">
         <f>SUM(B20:B46)</f>
         <v>105873</v>
       </c>
-      <c r="I5" s="33"/>
-    </row>
-    <row r="6" spans="1:13" s="15" customFormat="1">
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" spans="1:14" s="15" customFormat="1">
       <c r="A6" s="20" t="s">
         <v>71</v>
       </c>
       <c r="B6" s="12">
         <v>1000</v>
       </c>
-      <c r="D6" s="39"/>
-      <c r="I6" s="33"/>
-    </row>
-    <row r="7" spans="1:13" s="15" customFormat="1">
+      <c r="D6" s="42"/>
+      <c r="E6" s="39"/>
+      <c r="J6" s="33"/>
+    </row>
+    <row r="7" spans="1:14" s="15" customFormat="1">
       <c r="A7" s="14" t="s">
         <v>72</v>
       </c>
       <c r="B7" s="12">
         <v>700</v>
       </c>
-      <c r="D7" s="39"/>
-      <c r="I7" s="33"/>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="D7" s="42"/>
+      <c r="E7" s="39"/>
+      <c r="J7" s="33"/>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="25" t="s">
         <v>64</v>
       </c>
@@ -1292,15 +1318,16 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="F8" s="33" t="s">
+      <c r="E8" s="2"/>
+      <c r="G8" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="G8">
-        <f>G2+G5</f>
+      <c r="H8">
+        <f>H2+H5</f>
         <v>159160.5</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -1311,8 +1338,9 @@
         <v>6</v>
       </c>
       <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="26" t="s">
         <v>49</v>
       </c>
@@ -1323,8 +1351,9 @@
       <c r="D10" s="27">
         <v>154</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="E10" s="27"/>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="26" t="s">
         <v>50</v>
       </c>
@@ -1335,14 +1364,16 @@
       <c r="D11" s="27">
         <v>404</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" s="16" customFormat="1">
+      <c r="E11" s="27"/>
+    </row>
+    <row r="12" spans="1:14" s="16" customFormat="1">
       <c r="A12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="I12" s="33"/>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="E12" s="5"/>
+      <c r="J12" s="33"/>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="8" t="s">
         <v>0</v>
       </c>
@@ -1356,8 +1387,9 @@
       <c r="D13" s="8">
         <v>7700</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" s="24" customFormat="1">
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:14" s="24" customFormat="1">
       <c r="A14" s="25" t="s">
         <v>88</v>
       </c>
@@ -1368,9 +1400,10 @@
       <c r="D14" s="25">
         <v>195</v>
       </c>
-      <c r="I14" s="33"/>
-    </row>
-    <row r="15" spans="1:13" ht="27">
+      <c r="E14" s="25"/>
+      <c r="J14" s="33"/>
+    </row>
+    <row r="15" spans="1:14" ht="27">
       <c r="A15" s="6" t="s">
         <v>36</v>
       </c>
@@ -1383,8 +1416,9 @@
         <f>146.5+74</f>
         <v>220.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="9" t="s">
         <v>54</v>
       </c>
@@ -1393,8 +1427,9 @@
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="9" t="s">
         <v>55</v>
       </c>
@@ -1402,26 +1437,31 @@
         <v>598</v>
       </c>
       <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="F17" t="s">
+      <c r="D17" s="5">
+        <v>200</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="G17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="16" customFormat="1">
+    <row r="18" spans="1:13" s="16" customFormat="1">
       <c r="A18" s="9"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="I18" s="33"/>
-    </row>
-    <row r="19" spans="1:12" s="16" customFormat="1">
+      <c r="E18" s="5"/>
+      <c r="J18" s="33"/>
+    </row>
+    <row r="19" spans="1:13" s="16" customFormat="1">
       <c r="A19" s="19" t="s">
         <v>74</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="I19" s="33"/>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="E19" s="5"/>
+      <c r="J19" s="33"/>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="8" t="s">
         <v>1</v>
       </c>
@@ -1434,8 +1474,11 @@
       <c r="D20" s="8">
         <v>1000</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" s="33" customFormat="1">
+      <c r="E20" s="8">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="33" customFormat="1">
       <c r="A21" s="8" t="s">
         <v>111</v>
       </c>
@@ -1448,8 +1491,9 @@
       <c r="D21" s="8">
         <v>3200</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="27">
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:13" ht="27">
       <c r="A22" s="6" t="s">
         <v>32</v>
       </c>
@@ -1462,8 +1506,11 @@
       <c r="D22" s="7">
         <v>1100</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="49.5" customHeight="1">
+      <c r="E22" s="7">
+        <v>9900</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="49.5" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>57</v>
       </c>
@@ -1471,36 +1518,37 @@
         <f>89+189</f>
         <v>278</v>
       </c>
-      <c r="F23" s="41" t="s">
+      <c r="G23" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="36" t="s">
         <v>124</v>
       </c>
       <c r="B24">
         <v>1299</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="G24" s="13" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="37" customFormat="1">
+    <row r="25" spans="1:13" s="37" customFormat="1">
       <c r="A25" s="36" t="s">
         <v>122</v>
       </c>
       <c r="B25" s="7">
         <v>6000</v>
       </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="E25" s="41"/>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="36" t="s">
         <v>121</v>
       </c>
@@ -1513,22 +1561,26 @@
       <c r="D26">
         <v>5000</v>
       </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="E26" s="41">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="20" t="s">
         <v>41</v>
       </c>
       <c r="B27" s="23">
         <v>1250</v>
       </c>
-      <c r="D27" s="40">
+      <c r="D27" s="43">
         <v>26270</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="E27" s="40"/>
+      <c r="G27" s="21" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="35" customFormat="1">
+    <row r="28" spans="1:13" s="35" customFormat="1">
       <c r="A28" s="34" t="s">
         <v>37</v>
       </c>
@@ -1539,30 +1591,33 @@
       <c r="C28" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="D28" s="40"/>
-      <c r="F28" s="35" t="s">
+      <c r="D28" s="43"/>
+      <c r="E28" s="40"/>
+      <c r="G28" s="35" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:13">
       <c r="A29" s="20" t="s">
         <v>39</v>
       </c>
       <c r="B29" s="23">
         <v>3850</v>
       </c>
-      <c r="D29" s="40"/>
-      <c r="F29" s="21" t="s">
+      <c r="D29" s="43"/>
+      <c r="E29" s="40"/>
+      <c r="G29" s="21" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="35" customFormat="1">
+    <row r="30" spans="1:13" s="35" customFormat="1">
       <c r="A30" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="D30" s="40"/>
-    </row>
-    <row r="31" spans="1:12" s="35" customFormat="1">
+      <c r="D30" s="43"/>
+      <c r="E30" s="40"/>
+    </row>
+    <row r="31" spans="1:13" s="35" customFormat="1">
       <c r="A31" s="34" t="s">
         <v>38</v>
       </c>
@@ -1570,12 +1625,13 @@
         <f>4299*3</f>
         <v>12897</v>
       </c>
-      <c r="D31" s="40"/>
-      <c r="F31" s="35" t="s">
+      <c r="D31" s="43"/>
+      <c r="E31" s="40"/>
+      <c r="G31" s="35" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="35" customFormat="1">
+    <row r="32" spans="1:13" s="35" customFormat="1">
       <c r="A32" s="34" t="s">
         <v>119</v>
       </c>
@@ -1583,8 +1639,9 @@
         <v>3000</v>
       </c>
       <c r="D32" s="38"/>
-    </row>
-    <row r="33" spans="1:19">
+      <c r="E32" s="38"/>
+    </row>
+    <row r="33" spans="1:20">
       <c r="A33" s="20" t="s">
         <v>40</v>
       </c>
@@ -1592,68 +1649,72 @@
         <v>2000</v>
       </c>
       <c r="D33" s="38"/>
-      <c r="F33" s="21" t="s">
+      <c r="E33" s="38"/>
+      <c r="G33" s="21" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:19" s="15" customFormat="1">
+    <row r="34" spans="1:20" s="15" customFormat="1">
       <c r="A34" s="20" t="s">
         <v>69</v>
       </c>
       <c r="B34" s="15">
         <v>600</v>
       </c>
-      <c r="F34" s="21" t="s">
+      <c r="E34" s="41"/>
+      <c r="G34" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="I34" s="33"/>
-    </row>
-    <row r="35" spans="1:19" s="15" customFormat="1">
+      <c r="J34" s="33"/>
+    </row>
+    <row r="35" spans="1:20" s="15" customFormat="1">
       <c r="A35" s="20" t="s">
         <v>70</v>
       </c>
       <c r="B35" s="22">
         <v>1200</v>
       </c>
-      <c r="I35" s="33"/>
-    </row>
-    <row r="36" spans="1:19">
+      <c r="E35" s="41"/>
+      <c r="J35" s="33"/>
+    </row>
+    <row r="36" spans="1:20">
       <c r="A36" s="20" t="s">
         <v>43</v>
       </c>
       <c r="B36" s="23">
         <v>2259</v>
       </c>
-      <c r="F36" s="21" t="s">
+      <c r="G36" s="21" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:20">
       <c r="A37" s="18" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:20">
       <c r="A38" s="20" t="s">
         <v>45</v>
       </c>
       <c r="B38">
         <v>600</v>
       </c>
-      <c r="F38" s="21" t="s">
+      <c r="G38" s="21" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:19" s="29" customFormat="1">
+    <row r="39" spans="1:20" s="29" customFormat="1">
       <c r="A39" s="28" t="s">
         <v>91</v>
       </c>
       <c r="B39" s="22">
         <v>3000</v>
       </c>
-      <c r="I39" s="33"/>
-    </row>
-    <row r="40" spans="1:19">
+      <c r="E39" s="41"/>
+      <c r="J39" s="33"/>
+    </row>
+    <row r="40" spans="1:20">
       <c r="A40" s="9" t="s">
         <v>58</v>
       </c>
@@ -1661,17 +1722,17 @@
         <f>1299*2</f>
         <v>2598</v>
       </c>
-      <c r="C40" s="40" t="s">
+      <c r="C40" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="D40" s="42">
+      <c r="D40" s="45">
         <v>1260</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="G40" s="13" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="82.5" customHeight="1">
+    <row r="41" spans="1:20" ht="82.5" customHeight="1">
       <c r="A41" s="3" t="s">
         <v>62</v>
       </c>
@@ -1679,70 +1740,73 @@
         <f>999+299*2+359+89+299+339</f>
         <v>2683</v>
       </c>
-      <c r="C41" s="40"/>
-      <c r="D41" s="42"/>
-      <c r="F41" s="41" t="s">
+      <c r="C41" s="43"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="41">
+        <v>3000</v>
+      </c>
+      <c r="G41" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="42"/>
-      <c r="L41" s="42"/>
-      <c r="M41" s="42"/>
-      <c r="N41" s="42"/>
-      <c r="O41" s="42"/>
-      <c r="P41" s="42"/>
-      <c r="Q41" s="42"/>
-      <c r="R41" s="42"/>
-      <c r="S41" s="42"/>
-    </row>
-    <row r="42" spans="1:19">
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="45"/>
+      <c r="N41" s="45"/>
+      <c r="O41" s="45"/>
+      <c r="P41" s="45"/>
+      <c r="Q41" s="45"/>
+      <c r="R41" s="45"/>
+      <c r="S41" s="45"/>
+      <c r="T41" s="45"/>
+    </row>
+    <row r="42" spans="1:20">
       <c r="A42" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B42" s="12">
         <v>300</v>
       </c>
-      <c r="C42" s="40"/>
-      <c r="D42" s="42"/>
-      <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="1:19">
+      <c r="C42" s="43"/>
+      <c r="D42" s="45"/>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="1:20">
       <c r="A43" s="20" t="s">
         <v>42</v>
       </c>
       <c r="B43">
         <v>3579</v>
       </c>
-      <c r="F43" s="21" t="s">
+      <c r="G43" s="21" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" spans="1:20">
       <c r="A44" s="20" t="s">
         <v>48</v>
       </c>
       <c r="B44">
         <v>1599</v>
       </c>
-      <c r="F44" s="21" t="s">
+      <c r="G44" s="21" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:19">
+    <row r="45" spans="1:20">
       <c r="A45" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B45">
         <v>3598</v>
       </c>
-      <c r="F45" s="21" t="s">
+      <c r="G45" s="21" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="27.75" customHeight="1">
+    <row r="46" spans="1:20" ht="27.75" customHeight="1">
       <c r="A46" s="3" t="s">
         <v>46</v>
       </c>
@@ -1750,31 +1814,124 @@
         <f>7488+2499*2</f>
         <v>12486</v>
       </c>
-      <c r="F46" s="41" t="s">
+      <c r="G46" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="G46" s="41"/>
-      <c r="H46" s="41"/>
-      <c r="I46" s="41"/>
-      <c r="J46" s="41"/>
-    </row>
-    <row r="47" spans="1:19">
+      <c r="H46" s="44"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="44"/>
+      <c r="K46" s="44"/>
+    </row>
+    <row r="47" spans="1:20">
       <c r="B47">
         <f>SUM(B3:B46)</f>
         <v>159160.5</v>
       </c>
       <c r="D47">
         <f>SUM(D3:D46)</f>
-        <v>84876.5</v>
+        <v>85076.5</v>
+      </c>
+      <c r="E47" s="41">
+        <f>SUM(E2:E45)</f>
+        <v>18700</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="12">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="11">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="41">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="41">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="7">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="41">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="41">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="41">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="22">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="23">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="41"/>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="41">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="22">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="41">
+        <v>3579</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="41">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="41">
+        <v>3598</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="41">
+        <v>12486</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83">
+        <f>SUM(B66:B82)</f>
+        <v>43596</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="C40:C42"/>
-    <mergeCell ref="F41:S41"/>
-    <mergeCell ref="F23:L23"/>
-    <mergeCell ref="F46:J46"/>
+    <mergeCell ref="G41:T41"/>
+    <mergeCell ref="G23:M23"/>
+    <mergeCell ref="G46:K46"/>
     <mergeCell ref="D40:D42"/>
     <mergeCell ref="D27:D31"/>
   </mergeCells>
@@ -1785,7 +1942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2312,7 +2469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2360,7 +2517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2387,7 +2544,7 @@
         <f t="shared" ref="E1:E7" si="0">C1*D1</f>
         <v>476</v>
       </c>
-      <c r="G1" s="40">
+      <c r="G1" s="43">
         <f>SUM(E1:E7)</f>
         <v>761</v>
       </c>
@@ -2406,7 +2563,7 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="G2" s="40"/>
+      <c r="G2" s="43"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="30" t="s">
@@ -2422,7 +2579,7 @@
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="G3" s="40"/>
+      <c r="G3" s="43"/>
     </row>
     <row r="4" spans="1:7">
       <c r="B4" s="30" t="s">
@@ -2438,7 +2595,7 @@
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="G4" s="40"/>
+      <c r="G4" s="43"/>
     </row>
     <row r="5" spans="1:7">
       <c r="B5" s="30" t="s">
@@ -2454,7 +2611,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="G5" s="40"/>
+      <c r="G5" s="43"/>
     </row>
     <row r="6" spans="1:7">
       <c r="B6" s="30" t="s">
@@ -2470,7 +2627,7 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="G6" s="40"/>
+      <c r="G6" s="43"/>
     </row>
     <row r="7" spans="1:7">
       <c r="B7" s="30" t="s">
@@ -2486,7 +2643,7 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G7" s="40"/>
+      <c r="G7" s="43"/>
     </row>
     <row r="8" spans="1:7">
       <c r="E8" s="30"/>
@@ -2520,7 +2677,7 @@
         <f t="shared" si="1"/>
         <v>700</v>
       </c>
-      <c r="F10" s="40">
+      <c r="F10" s="43">
         <f>SUM(E10:E17)</f>
         <v>2270</v>
       </c>
@@ -2539,7 +2696,7 @@
         <f t="shared" si="1"/>
         <v>280</v>
       </c>
-      <c r="F11" s="40"/>
+      <c r="F11" s="43"/>
     </row>
     <row r="12" spans="1:7">
       <c r="B12" s="30" t="s">
@@ -2555,7 +2712,7 @@
         <f t="shared" si="1"/>
         <v>560</v>
       </c>
-      <c r="F12" s="40"/>
+      <c r="F12" s="43"/>
       <c r="G12" s="30" t="s">
         <v>101</v>
       </c>
@@ -2574,7 +2731,7 @@
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="F13" s="40"/>
+      <c r="F13" s="43"/>
     </row>
     <row r="14" spans="1:7" s="30" customFormat="1">
       <c r="B14" s="30" t="s">
@@ -2590,7 +2747,7 @@
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="F14" s="40"/>
+      <c r="F14" s="43"/>
     </row>
     <row r="15" spans="1:7">
       <c r="B15" s="30" t="s">
@@ -2606,10 +2763,10 @@
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="F15" s="40"/>
+      <c r="F15" s="43"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="43" t="s">
         <v>105</v>
       </c>
       <c r="B16" s="30" t="s">
@@ -2625,10 +2782,10 @@
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="F16" s="40"/>
+      <c r="F16" s="43"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="40"/>
+      <c r="A17" s="43"/>
       <c r="B17" s="30" t="s">
         <v>107</v>
       </c>
@@ -2642,11 +2799,11 @@
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40" t="s">
+      <c r="F17" s="43"/>
+      <c r="G17" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="H17" s="40"/>
+      <c r="H17" s="43"/>
     </row>
     <row r="18" spans="1:8" s="30" customFormat="1">
       <c r="A18" s="32"/>

--- a/装修费用170107.xlsx
+++ b/装修费用170107.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -12,22 +12,18 @@
     <sheet name="材料更换" sheetId="3" r:id="rId3"/>
     <sheet name="灯-开关-浴霸" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="123">
   <si>
     <t>地砖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>燃气灶/烟机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已付定金1000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -170,14 +166,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>床*3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>衣柜*3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>沙发</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -202,10 +190,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>电脑桌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>空调*3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -249,19 +233,10 @@
     <t>https://detail.tmall.com/item.htm?spm=a230r.1.14.53.iWyIdr&amp;id=10905215461&amp;ns=1&amp;abbucket=15&amp;skuId=82721242773</t>
   </si>
   <si>
-    <t>/吊顶灯/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>浴霸</t>
   </si>
   <si>
     <t>估算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.jd.com/10951829197.html
-https://item.jd.com/11060056461.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -295,9 +270,6 @@
     <t>https://item.jd.com/10657810674.html</t>
   </si>
   <si>
-    <t>https://item.jd.com/11176497894.html</t>
-  </si>
-  <si>
     <t>鞋柜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -453,18 +425,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>定金1260, 差3000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>热水器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>900/2300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>预计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -485,14 +449,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>儿童书桌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>床垫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>含1床垫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -501,22 +457,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>推拉门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>8400 预付5000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>净化器/净水器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推拉门+护角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主卧床+床垫+衣柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小卧室床+儿童书桌+组合柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电脑椅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电脑桌+书柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次卧床+衣柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>床垫*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>900/2300+300架子钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支架150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定金1260, 差3000,
+平板灯120</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="14">
     <font>
       <sz val="11"/>
@@ -652,7 +645,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -755,6 +748,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -762,12 +758,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -779,6 +769,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -790,6 +789,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -797,74 +799,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -884,7 +818,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -919,7 +853,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -951,10 +885,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -986,7 +919,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1162,50 +1094,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19.125" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="5" max="5" width="9" style="41"/>
+    <col min="5" max="5" width="9" style="40"/>
     <col min="7" max="7" width="10" customWidth="1"/>
     <col min="10" max="10" width="9" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I1" s="33"/>
       <c r="K1" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="N1" s="25" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="16" customFormat="1">
       <c r="A2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="41"/>
+        <v>66</v>
+      </c>
+      <c r="E2" s="40"/>
       <c r="G2" s="16" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="H2" s="11">
         <f>SUM(B3:B17)</f>
@@ -1223,13 +1155,13 @@
     </row>
     <row r="3" spans="1:14" ht="27">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>26090</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2">
         <f>26090+20</f>
@@ -1237,7 +1169,7 @@
       </c>
       <c r="E3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="H3" s="5">
         <f>SUM(B3:B11)</f>
@@ -1246,20 +1178,20 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>14371</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D4" s="2">
         <v>12263</v>
       </c>
       <c r="E4" s="2"/>
       <c r="G4" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H4" s="7">
         <f>SUM(B13:B17)</f>
@@ -1268,50 +1200,50 @@
     </row>
     <row r="5" spans="1:14" s="17" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B5" s="2">
         <v>-2000</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="42">
+      <c r="D5" s="44">
         <v>0</v>
       </c>
-      <c r="E5" s="39"/>
+      <c r="E5" s="38"/>
       <c r="G5" s="21" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H5" s="21">
         <f>SUM(B20:B46)</f>
-        <v>105873</v>
+        <v>92698</v>
       </c>
       <c r="J5" s="33"/>
     </row>
     <row r="6" spans="1:14" s="15" customFormat="1">
       <c r="A6" s="20" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B6" s="12">
         <v>1000</v>
       </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="39"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="38"/>
       <c r="J6" s="33"/>
     </row>
     <row r="7" spans="1:14" s="15" customFormat="1">
       <c r="A7" s="14" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B7" s="12">
         <v>700</v>
       </c>
-      <c r="D7" s="42"/>
-      <c r="E7" s="39"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="38"/>
       <c r="J7" s="33"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="25" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B8" s="27">
         <v>1000</v>
@@ -1320,29 +1252,29 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="G8" s="33" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="H8">
         <f>H2+H5</f>
-        <v>159160.5</v>
+        <v>145985.5</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="2">
         <v>1355</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="26" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B10" s="27">
         <v>154</v>
@@ -1355,7 +1287,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="26" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B11" s="27">
         <v>404</v>
@@ -1382,7 +1314,7 @@
         <v>7700</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="8">
         <v>7700</v>
@@ -1391,7 +1323,7 @@
     </row>
     <row r="14" spans="1:14" s="24" customFormat="1">
       <c r="A14" s="25" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B14" s="25">
         <v>195</v>
@@ -1405,7 +1337,7 @@
     </row>
     <row r="15" spans="1:14" ht="27">
       <c r="A15" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" s="7">
         <f>146.5+74</f>
@@ -1420,18 +1352,20 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B16" s="12">
         <v>1500</v>
       </c>
       <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
+      <c r="D16" s="5">
+        <v>1400</v>
+      </c>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:10">
       <c r="A17" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B17" s="11">
         <v>598</v>
@@ -1442,26 +1376,26 @@
       </c>
       <c r="E17" s="5"/>
       <c r="G17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" s="16" customFormat="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="16" customFormat="1">
       <c r="A18" s="9"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="J18" s="33"/>
     </row>
-    <row r="19" spans="1:13" s="16" customFormat="1">
+    <row r="19" spans="1:10" s="16" customFormat="1">
       <c r="A19" s="19" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="J19" s="33"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:10">
       <c r="A20" s="8" t="s">
         <v>1</v>
       </c>
@@ -1469,471 +1403,487 @@
         <v>3400</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>2</v>
+        <v>121</v>
       </c>
       <c r="D20" s="8">
-        <v>1000</v>
+        <f>1000+2400+150</f>
+        <v>3550</v>
       </c>
       <c r="E20" s="8">
         <v>2400</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="33" customFormat="1">
+    <row r="21" spans="1:10" s="33" customFormat="1">
       <c r="A21" s="8" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B21" s="8">
         <v>3200</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D21" s="8">
-        <v>3200</v>
+        <f>3200+300</f>
+        <v>3500</v>
       </c>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="1:13" ht="27">
+    <row r="22" spans="1:10" ht="27">
       <c r="A22" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" s="7">
         <v>11000</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" s="7">
-        <v>1100</v>
+        <f>1100+9900</f>
+        <v>11000</v>
       </c>
       <c r="E22" s="7">
         <v>9900</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="49.5" customHeight="1">
-      <c r="A23" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23">
-        <f>89+189</f>
-        <v>278</v>
-      </c>
-      <c r="G23" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="B24">
-        <v>1299</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" s="37" customFormat="1">
-      <c r="A25" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="B25" s="7">
-        <v>6000</v>
-      </c>
+    <row r="23" spans="1:10">
+      <c r="A23" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" s="12">
+        <v>10000</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23">
+        <f>5000+3400</f>
+        <v>8400</v>
+      </c>
+      <c r="E23" s="40">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="43" customFormat="1" ht="27">
+      <c r="A24" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" s="23"/>
+      <c r="D24" s="45">
+        <v>13227</v>
+      </c>
+      <c r="E24" s="41"/>
+    </row>
+    <row r="25" spans="1:10" s="43" customFormat="1">
+      <c r="A25" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" s="23"/>
+      <c r="D25" s="45"/>
       <c r="E25" s="41"/>
     </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="B26" s="12">
-        <v>10000</v>
-      </c>
-      <c r="C26" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="D26">
-        <v>5000</v>
-      </c>
-      <c r="E26" s="41">
-        <v>3400</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="23">
-        <v>1250</v>
-      </c>
-      <c r="D27" s="43">
-        <v>26270</v>
-      </c>
-      <c r="E27" s="40"/>
-      <c r="G27" s="21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" s="35" customFormat="1">
-      <c r="A28" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="35">
+    <row r="26" spans="1:10" s="34" customFormat="1">
+      <c r="A26" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" s="34">
         <f>4399*3</f>
         <v>13197</v>
       </c>
-      <c r="C28" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="D28" s="43"/>
-      <c r="E28" s="40"/>
-      <c r="G28" s="35" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="C26" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="45">
+        <v>13670</v>
+      </c>
+      <c r="E26" s="39"/>
+      <c r="G26" s="34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="23">
+        <v>3850</v>
+      </c>
+      <c r="D27" s="45"/>
+      <c r="E27" s="39"/>
+      <c r="G27" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="23">
+        <v>1250</v>
+      </c>
+      <c r="D28" s="45">
+        <v>5700</v>
+      </c>
+      <c r="E28" s="39"/>
+      <c r="G28" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="23">
-        <v>3850</v>
-      </c>
-      <c r="D29" s="43"/>
-      <c r="E29" s="40"/>
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>2000</v>
+      </c>
+      <c r="D29" s="45"/>
+      <c r="E29" s="37"/>
       <c r="G29" s="21" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" s="35" customFormat="1">
-      <c r="A30" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="D30" s="43"/>
-      <c r="E30" s="40"/>
-    </row>
-    <row r="31" spans="1:13" s="35" customFormat="1">
-      <c r="A31" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="35">
-        <f>4299*3</f>
-        <v>12897</v>
-      </c>
-      <c r="D31" s="43"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="43" customFormat="1">
+      <c r="A30" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" s="45"/>
+      <c r="E30" s="37"/>
+    </row>
+    <row r="31" spans="1:10" s="15" customFormat="1">
+      <c r="A31" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="15">
+        <v>600</v>
+      </c>
+      <c r="D31" s="45"/>
       <c r="E31" s="40"/>
-      <c r="G31" s="35" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" s="35" customFormat="1">
-      <c r="A32" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="B32" s="35">
+      <c r="G31" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="J31" s="33"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="23">
+        <v>2259</v>
+      </c>
+      <c r="D32" s="45"/>
+      <c r="G32" s="21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33">
+        <v>600</v>
+      </c>
+      <c r="D33" s="45"/>
+      <c r="G33" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" s="29" customFormat="1">
+      <c r="A34" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="22">
         <v>3000</v>
       </c>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33">
+      <c r="D34" s="29">
         <v>2000</v>
       </c>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="G33" s="21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" s="15" customFormat="1">
-      <c r="A34" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" s="15">
-        <v>600</v>
-      </c>
-      <c r="E34" s="41"/>
-      <c r="G34" s="21" t="s">
-        <v>78</v>
-      </c>
+      <c r="E34" s="40"/>
       <c r="J34" s="33"/>
     </row>
-    <row r="35" spans="1:20" s="15" customFormat="1">
-      <c r="A35" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="B35" s="22">
-        <v>1200</v>
-      </c>
-      <c r="E35" s="41"/>
-      <c r="J35" s="33"/>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" s="23">
-        <v>2259</v>
-      </c>
-      <c r="G36" s="21" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" s="18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20">
-      <c r="A38" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38">
-        <v>600</v>
-      </c>
-      <c r="G38" s="21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" s="29" customFormat="1">
-      <c r="A39" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="B39" s="22">
-        <v>3000</v>
-      </c>
-      <c r="E39" s="41"/>
-      <c r="J39" s="33"/>
-    </row>
-    <row r="40" spans="1:20">
-      <c r="A40" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B40" s="11">
+    <row r="35" spans="1:20">
+      <c r="A35" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="11">
         <f>1299*2</f>
         <v>2598</v>
       </c>
-      <c r="C40" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="D40" s="45">
-        <v>1260</v>
-      </c>
-      <c r="G40" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" ht="82.5" customHeight="1">
-      <c r="A41" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B41" s="31">
+      <c r="C35" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="D35" s="47">
+        <f>1260+3120</f>
+        <v>4380</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" ht="82.5" customHeight="1">
+      <c r="A36" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="31">
         <f>999+299*2+359+89+299+339</f>
         <v>2683</v>
       </c>
-      <c r="C41" s="43"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="41">
+      <c r="C36" s="45"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="43"/>
+      <c r="G36" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="47"/>
+      <c r="O36" s="47"/>
+      <c r="P36" s="47"/>
+      <c r="Q36" s="47"/>
+      <c r="R36" s="47"/>
+      <c r="S36" s="47"/>
+      <c r="T36" s="47"/>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="12">
+        <v>300</v>
+      </c>
+      <c r="C37" s="45"/>
+      <c r="D37" s="47"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38">
+        <v>3598</v>
+      </c>
+      <c r="D38">
+        <v>1800</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" s="36" customFormat="1">
+      <c r="A39" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="B39" s="7">
+        <v>6000</v>
+      </c>
+      <c r="D39" s="36">
+        <v>4500</v>
+      </c>
+      <c r="E39" s="40"/>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>3579</v>
+      </c>
+      <c r="G40" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41">
+        <v>1599</v>
+      </c>
+      <c r="G41" s="21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="B42">
+        <v>1299</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" s="34" customFormat="1">
+      <c r="A43" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="B43" s="34">
         <v>3000</v>
       </c>
-      <c r="G41" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="H41" s="45"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="45"/>
-      <c r="L41" s="45"/>
-      <c r="M41" s="45"/>
-      <c r="N41" s="45"/>
-      <c r="O41" s="45"/>
-      <c r="P41" s="45"/>
-      <c r="Q41" s="45"/>
-      <c r="R41" s="45"/>
-      <c r="S41" s="45"/>
-      <c r="T41" s="45"/>
-    </row>
-    <row r="42" spans="1:20">
-      <c r="A42" s="3" t="s">
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+    </row>
+    <row r="44" spans="1:20" s="15" customFormat="1">
+      <c r="A44" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="12">
-        <v>300</v>
-      </c>
-      <c r="C42" s="43"/>
-      <c r="D42" s="45"/>
-      <c r="G42" s="3"/>
-    </row>
-    <row r="43" spans="1:20">
-      <c r="A43" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>3579</v>
-      </c>
-      <c r="G43" s="21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20">
-      <c r="A44" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44">
-        <v>1599</v>
-      </c>
-      <c r="G44" s="21" t="s">
-        <v>84</v>
-      </c>
+      <c r="B44" s="22">
+        <v>1200</v>
+      </c>
+      <c r="E44" s="40"/>
+      <c r="J44" s="33"/>
     </row>
     <row r="45" spans="1:20">
-      <c r="A45" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45">
-        <v>3598</v>
-      </c>
-      <c r="G45" s="21" t="s">
-        <v>85</v>
+      <c r="A45" s="18" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:20" ht="27.75" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B46" s="21">
         <f>7488+2499*2</f>
         <v>12486</v>
       </c>
-      <c r="G46" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="H46" s="44"/>
-      <c r="I46" s="44"/>
-      <c r="J46" s="44"/>
-      <c r="K46" s="44"/>
-    </row>
-    <row r="47" spans="1:20">
-      <c r="B47">
+      <c r="G46" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="H46" s="46"/>
+      <c r="I46" s="46"/>
+      <c r="J46" s="46"/>
+      <c r="K46" s="46"/>
+    </row>
+    <row r="47" spans="1:20" s="43" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A47" s="42"/>
+      <c r="B47" s="43">
+        <f>SUM(B40:B46)</f>
+        <v>23163</v>
+      </c>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="42"/>
+    </row>
+    <row r="48" spans="1:20">
+      <c r="B48">
         <f>SUM(B3:B46)</f>
-        <v>159160.5</v>
-      </c>
-      <c r="D47">
+        <v>145985.5</v>
+      </c>
+      <c r="D48">
         <f>SUM(D3:D46)</f>
-        <v>85076.5</v>
-      </c>
-      <c r="E47" s="41">
-        <f>SUM(E2:E45)</f>
-        <v>18700</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2">
-      <c r="B66" s="12">
+        <v>120373.5</v>
+      </c>
+      <c r="E48" s="40">
+        <f>SUM(E2:E41)</f>
+        <v>15700</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="12">
         <v>1500</v>
       </c>
     </row>
-    <row r="67" spans="2:2">
-      <c r="B67" s="11">
+    <row r="68" spans="2:2">
+      <c r="B68" s="11">
         <v>598</v>
       </c>
     </row>
-    <row r="68" spans="2:2">
-      <c r="B68" s="41">
+    <row r="69" spans="2:2">
+      <c r="B69" s="40">
         <v>278</v>
       </c>
     </row>
-    <row r="69" spans="2:2">
-      <c r="B69" s="41">
+    <row r="70" spans="2:2">
+      <c r="B70" s="40">
         <v>1299</v>
       </c>
     </row>
-    <row r="70" spans="2:2">
-      <c r="B70" s="7">
+    <row r="71" spans="2:2">
+      <c r="B71" s="7">
         <v>6000</v>
       </c>
     </row>
-    <row r="71" spans="2:2">
-      <c r="B71" s="41">
+    <row r="72" spans="2:2">
+      <c r="B72" s="40">
         <v>3000</v>
       </c>
     </row>
-    <row r="72" spans="2:2">
-      <c r="B72" s="41">
+    <row r="73" spans="2:2">
+      <c r="B73" s="40">
         <v>2000</v>
       </c>
     </row>
-    <row r="73" spans="2:2">
-      <c r="B73" s="41">
+    <row r="74" spans="2:2">
+      <c r="B74" s="40">
         <v>600</v>
       </c>
     </row>
-    <row r="74" spans="2:2">
-      <c r="B74" s="22">
+    <row r="75" spans="2:2">
+      <c r="B75" s="22">
         <v>1200</v>
       </c>
     </row>
-    <row r="75" spans="2:2">
-      <c r="B75" s="23">
+    <row r="76" spans="2:2">
+      <c r="B76" s="23">
         <v>2259</v>
       </c>
     </row>
-    <row r="76" spans="2:2">
-      <c r="B76" s="41"/>
-    </row>
     <row r="77" spans="2:2">
-      <c r="B77" s="41">
+      <c r="B77" s="40"/>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="40">
         <v>600</v>
       </c>
     </row>
-    <row r="78" spans="2:2">
-      <c r="B78" s="22">
+    <row r="79" spans="2:2">
+      <c r="B79" s="22">
         <v>3000</v>
       </c>
     </row>
-    <row r="79" spans="2:2">
-      <c r="B79" s="41">
+    <row r="80" spans="2:2">
+      <c r="B80" s="40">
         <v>3579</v>
       </c>
     </row>
-    <row r="80" spans="2:2">
-      <c r="B80" s="41">
+    <row r="81" spans="2:2">
+      <c r="B81" s="40">
         <v>1599</v>
       </c>
     </row>
-    <row r="81" spans="2:2">
-      <c r="B81" s="41">
+    <row r="82" spans="2:2">
+      <c r="B82" s="40">
         <v>3598</v>
       </c>
     </row>
-    <row r="82" spans="2:2">
-      <c r="B82" s="41">
+    <row r="83" spans="2:2">
+      <c r="B83" s="40">
         <v>12486</v>
       </c>
     </row>
-    <row r="83" spans="2:2">
-      <c r="B83">
-        <f>SUM(B66:B82)</f>
+    <row r="84" spans="2:2">
+      <c r="B84">
+        <f>SUM(B67:B83)</f>
         <v>43596</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="D5:D7"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="G41:T41"/>
-    <mergeCell ref="G23:M23"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="G36:T36"/>
     <mergeCell ref="G46:K46"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="D28:D33"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D24:D25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1942,7 +1892,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1957,45 +1907,45 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" t="s">
-        <v>14</v>
-      </c>
       <c r="N1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" t="s">
-        <v>23</v>
-      </c>
       <c r="R1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>1.1499999999999999</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I2">
         <v>1.1499999999999999</v>
@@ -2009,13 +1959,13 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I3">
         <v>3.15</v>
@@ -2038,13 +1988,13 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>3.7</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I4">
         <v>5.1100000000000003</v>
@@ -2058,7 +2008,7 @@
     </row>
     <row r="5" spans="1:18">
       <c r="H5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I5">
         <v>0.7</v>
@@ -2072,10 +2022,10 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
         <v>19</v>
-      </c>
-      <c r="H6" t="s">
-        <v>20</v>
       </c>
       <c r="I6">
         <v>4.3600000000000003</v>
@@ -2087,18 +2037,18 @@
         <v>5</v>
       </c>
       <c r="O6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>0.9</v>
       </c>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I7">
         <f>(369+46+14+62)/100</f>
@@ -2121,13 +2071,13 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>7.06</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I8">
         <f>1+1.4*3</f>
@@ -2150,13 +2100,13 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>0.7</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I9">
         <f t="shared" ref="I9:N9" si="0">SUM(I2:I8)</f>
@@ -2191,13 +2141,13 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>3.15</v>
       </c>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I10">
         <v>35</v>
@@ -2223,13 +2173,13 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>8.1999999999999993</v>
       </c>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I11">
         <f>I9*I10</f>
@@ -2266,7 +2216,7 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -2274,12 +2224,12 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>5.1100000000000003</v>
@@ -2287,7 +2237,7 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -2295,7 +2245,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <v>1.82</v>
@@ -2303,12 +2253,12 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20">
         <v>0.7</v>
@@ -2316,7 +2266,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21">
         <v>2.2999999999999998</v>
@@ -2324,7 +2274,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -2332,12 +2282,12 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B25">
         <v>436</v>
@@ -2345,7 +2295,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26">
         <v>207</v>
@@ -2353,7 +2303,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B27">
         <v>5</v>
@@ -2361,17 +2311,17 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B31">
         <f>(369+46+14+62)/100</f>
@@ -2380,7 +2330,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B32">
         <f>1+1.05+3.2</f>
@@ -2389,7 +2339,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -2397,7 +2347,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B34">
         <f>(60*2+115*2)/100</f>
@@ -2406,7 +2356,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B35">
         <f>2.1+1.8+1.7</f>
@@ -2415,12 +2365,12 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B38">
         <f>1.2*3+0.95</f>
@@ -2429,7 +2379,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B39">
         <f>1+1.4*3</f>
@@ -2438,7 +2388,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -2446,7 +2396,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B41">
         <f>1.1*2+0.65*2</f>
@@ -2455,7 +2405,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B42">
         <v>3.6</v>
@@ -2469,7 +2419,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2484,7 +2434,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1">
         <v>154</v>
@@ -2492,21 +2442,21 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="33" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2517,7 +2467,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2532,7 +2482,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="30" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C1">
         <v>34</v>
@@ -2544,14 +2494,14 @@
         <f t="shared" ref="E1:E7" si="0">C1*D1</f>
         <v>476</v>
       </c>
-      <c r="G1" s="43">
+      <c r="G1" s="45">
         <f>SUM(E1:E7)</f>
         <v>761</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="B2" s="30" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2563,11 +2513,11 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="G2" s="43"/>
+      <c r="G2" s="45"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="30" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -2579,11 +2529,11 @@
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="G3" s="43"/>
+      <c r="G3" s="45"/>
     </row>
     <row r="4" spans="1:7">
       <c r="B4" s="30" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -2595,11 +2545,11 @@
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="G4" s="43"/>
+      <c r="G4" s="45"/>
     </row>
     <row r="5" spans="1:7">
       <c r="B5" s="30" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2611,11 +2561,11 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="G5" s="43"/>
+      <c r="G5" s="45"/>
     </row>
     <row r="6" spans="1:7">
       <c r="B6" s="30" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -2627,11 +2577,11 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="G6" s="43"/>
+      <c r="G6" s="45"/>
     </row>
     <row r="7" spans="1:7">
       <c r="B7" s="30" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -2643,14 +2593,14 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G7" s="43"/>
+      <c r="G7" s="45"/>
     </row>
     <row r="8" spans="1:7">
       <c r="E8" s="30"/>
     </row>
     <row r="9" spans="1:7">
       <c r="B9" s="30" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -2665,7 +2615,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="B10" s="30" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2677,14 +2627,14 @@
         <f t="shared" si="1"/>
         <v>700</v>
       </c>
-      <c r="F10" s="43">
+      <c r="F10" s="45">
         <f>SUM(E10:E17)</f>
         <v>2270</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="B11" s="30" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2696,11 +2646,11 @@
         <f t="shared" si="1"/>
         <v>280</v>
       </c>
-      <c r="F11" s="43"/>
+      <c r="F11" s="45"/>
     </row>
     <row r="12" spans="1:7">
       <c r="B12" s="30" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -2712,14 +2662,14 @@
         <f t="shared" si="1"/>
         <v>560</v>
       </c>
-      <c r="F12" s="43"/>
+      <c r="F12" s="45"/>
       <c r="G12" s="30" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="B13" s="30" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2731,11 +2681,11 @@
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="F13" s="43"/>
+      <c r="F13" s="45"/>
     </row>
     <row r="14" spans="1:7" s="30" customFormat="1">
       <c r="B14" s="30" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C14" s="30">
         <v>1</v>
@@ -2747,11 +2697,11 @@
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="F14" s="43"/>
+      <c r="F14" s="45"/>
     </row>
     <row r="15" spans="1:7">
       <c r="B15" s="30" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2763,14 +2713,14 @@
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="F15" s="43"/>
+      <c r="F15" s="45"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="43" t="s">
-        <v>105</v>
+      <c r="A16" s="45" t="s">
+        <v>98</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2782,12 +2732,12 @@
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="F16" s="43"/>
+      <c r="F16" s="45"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="43"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="30" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2799,11 +2749,11 @@
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="H17" s="43"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="H17" s="45"/>
     </row>
     <row r="18" spans="1:8" s="30" customFormat="1">
       <c r="A18" s="32"/>

--- a/装修费用170107.xlsx
+++ b/装修费用170107.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="124">
   <si>
     <t>地砖</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -503,6 +503,10 @@
   <si>
     <t>定金1260, 差3000,
 平板灯120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -645,7 +649,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -778,10 +782,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -789,9 +799,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1097,8 +1104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:D9"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1206,7 +1213,7 @@
         <v>-2000</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="44">
+      <c r="D5" s="45">
         <v>0</v>
       </c>
       <c r="E5" s="38"/>
@@ -1226,7 +1233,7 @@
       <c r="B6" s="12">
         <v>1000</v>
       </c>
-      <c r="D6" s="44"/>
+      <c r="D6" s="45"/>
       <c r="E6" s="38"/>
       <c r="J6" s="33"/>
     </row>
@@ -1237,7 +1244,7 @@
       <c r="B7" s="12">
         <v>700</v>
       </c>
-      <c r="D7" s="44"/>
+      <c r="D7" s="45"/>
       <c r="E7" s="38"/>
       <c r="J7" s="33"/>
     </row>
@@ -1470,7 +1477,7 @@
         <v>115</v>
       </c>
       <c r="B24" s="23"/>
-      <c r="D24" s="45">
+      <c r="D24" s="47">
         <v>13227</v>
       </c>
       <c r="E24" s="41"/>
@@ -1480,7 +1487,7 @@
         <v>118</v>
       </c>
       <c r="B25" s="23"/>
-      <c r="D25" s="45"/>
+      <c r="D25" s="47"/>
       <c r="E25" s="41"/>
     </row>
     <row r="26" spans="1:10" s="34" customFormat="1">
@@ -1494,7 +1501,7 @@
       <c r="C26" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="D26" s="45">
+      <c r="D26" s="47">
         <v>13670</v>
       </c>
       <c r="E26" s="39"/>
@@ -1509,7 +1516,7 @@
       <c r="B27" s="23">
         <v>3850</v>
       </c>
-      <c r="D27" s="45"/>
+      <c r="D27" s="47"/>
       <c r="E27" s="39"/>
       <c r="G27" s="21" t="s">
         <v>72</v>
@@ -1522,7 +1529,7 @@
       <c r="B28" s="23">
         <v>1250</v>
       </c>
-      <c r="D28" s="45">
+      <c r="D28" s="47">
         <v>5700</v>
       </c>
       <c r="E28" s="39"/>
@@ -1537,7 +1544,7 @@
       <c r="B29">
         <v>2000</v>
       </c>
-      <c r="D29" s="45"/>
+      <c r="D29" s="47"/>
       <c r="E29" s="37"/>
       <c r="G29" s="21" t="s">
         <v>70</v>
@@ -1547,7 +1554,7 @@
       <c r="A30" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="D30" s="45"/>
+      <c r="D30" s="47"/>
       <c r="E30" s="37"/>
     </row>
     <row r="31" spans="1:10" s="15" customFormat="1">
@@ -1557,7 +1564,7 @@
       <c r="B31" s="15">
         <v>600</v>
       </c>
-      <c r="D31" s="45"/>
+      <c r="D31" s="47"/>
       <c r="E31" s="40"/>
       <c r="G31" s="21" t="s">
         <v>71</v>
@@ -1571,7 +1578,7 @@
       <c r="B32" s="23">
         <v>2259</v>
       </c>
-      <c r="D32" s="45"/>
+      <c r="D32" s="47"/>
       <c r="G32" s="21" t="s">
         <v>75</v>
       </c>
@@ -1583,7 +1590,7 @@
       <c r="B33">
         <v>600</v>
       </c>
-      <c r="D33" s="45"/>
+      <c r="D33" s="47"/>
       <c r="G33" s="21" t="s">
         <v>74</v>
       </c>
@@ -1609,10 +1616,10 @@
         <f>1299*2</f>
         <v>2598</v>
       </c>
-      <c r="C35" s="48" t="s">
+      <c r="C35" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="D35" s="47">
+      <c r="D35" s="49">
         <f>1260+3120</f>
         <v>4380</v>
       </c>
@@ -1628,25 +1635,25 @@
         <f>999+299*2+359+89+299+339</f>
         <v>2683</v>
       </c>
-      <c r="C36" s="45"/>
-      <c r="D36" s="47"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="49"/>
       <c r="E36" s="43"/>
-      <c r="G36" s="46" t="s">
+      <c r="G36" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="H36" s="47"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="47"/>
-      <c r="L36" s="47"/>
-      <c r="M36" s="47"/>
-      <c r="N36" s="47"/>
-      <c r="O36" s="47"/>
-      <c r="P36" s="47"/>
-      <c r="Q36" s="47"/>
-      <c r="R36" s="47"/>
-      <c r="S36" s="47"/>
-      <c r="T36" s="47"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="49"/>
+      <c r="Q36" s="49"/>
+      <c r="R36" s="49"/>
+      <c r="S36" s="49"/>
+      <c r="T36" s="49"/>
     </row>
     <row r="37" spans="1:20">
       <c r="A37" s="3" t="s">
@@ -1655,8 +1662,8 @@
       <c r="B37" s="12">
         <v>300</v>
       </c>
-      <c r="C37" s="45"/>
-      <c r="D37" s="47"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="49"/>
       <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:20">
@@ -1751,16 +1758,18 @@
         <f>7488+2499*2</f>
         <v>12486</v>
       </c>
-      <c r="G46" s="46" t="s">
+      <c r="G46" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="H46" s="46"/>
-      <c r="I46" s="46"/>
-      <c r="J46" s="46"/>
-      <c r="K46" s="46"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="48"/>
+      <c r="J46" s="48"/>
+      <c r="K46" s="48"/>
     </row>
     <row r="47" spans="1:20" s="43" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A47" s="42"/>
+      <c r="A47" s="44" t="s">
+        <v>123</v>
+      </c>
       <c r="B47" s="43">
         <f>SUM(B40:B46)</f>
         <v>23163</v>
@@ -2494,7 +2503,7 @@
         <f t="shared" ref="E1:E7" si="0">C1*D1</f>
         <v>476</v>
       </c>
-      <c r="G1" s="45">
+      <c r="G1" s="47">
         <f>SUM(E1:E7)</f>
         <v>761</v>
       </c>
@@ -2513,7 +2522,7 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="G2" s="45"/>
+      <c r="G2" s="47"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="30" t="s">
@@ -2529,7 +2538,7 @@
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="G3" s="45"/>
+      <c r="G3" s="47"/>
     </row>
     <row r="4" spans="1:7">
       <c r="B4" s="30" t="s">
@@ -2545,7 +2554,7 @@
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="G4" s="45"/>
+      <c r="G4" s="47"/>
     </row>
     <row r="5" spans="1:7">
       <c r="B5" s="30" t="s">
@@ -2561,7 +2570,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="G5" s="45"/>
+      <c r="G5" s="47"/>
     </row>
     <row r="6" spans="1:7">
       <c r="B6" s="30" t="s">
@@ -2577,7 +2586,7 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="G6" s="45"/>
+      <c r="G6" s="47"/>
     </row>
     <row r="7" spans="1:7">
       <c r="B7" s="30" t="s">
@@ -2593,7 +2602,7 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G7" s="45"/>
+      <c r="G7" s="47"/>
     </row>
     <row r="8" spans="1:7">
       <c r="E8" s="30"/>
@@ -2627,7 +2636,7 @@
         <f t="shared" si="1"/>
         <v>700</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="47">
         <f>SUM(E10:E17)</f>
         <v>2270</v>
       </c>
@@ -2646,7 +2655,7 @@
         <f t="shared" si="1"/>
         <v>280</v>
       </c>
-      <c r="F11" s="45"/>
+      <c r="F11" s="47"/>
     </row>
     <row r="12" spans="1:7">
       <c r="B12" s="30" t="s">
@@ -2662,7 +2671,7 @@
         <f t="shared" si="1"/>
         <v>560</v>
       </c>
-      <c r="F12" s="45"/>
+      <c r="F12" s="47"/>
       <c r="G12" s="30" t="s">
         <v>94</v>
       </c>
@@ -2681,7 +2690,7 @@
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="F13" s="45"/>
+      <c r="F13" s="47"/>
     </row>
     <row r="14" spans="1:7" s="30" customFormat="1">
       <c r="B14" s="30" t="s">
@@ -2697,7 +2706,7 @@
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="F14" s="45"/>
+      <c r="F14" s="47"/>
     </row>
     <row r="15" spans="1:7">
       <c r="B15" s="30" t="s">
@@ -2713,10 +2722,10 @@
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="F15" s="45"/>
+      <c r="F15" s="47"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="47" t="s">
         <v>98</v>
       </c>
       <c r="B16" s="30" t="s">
@@ -2732,10 +2741,10 @@
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="F16" s="45"/>
+      <c r="F16" s="47"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="45"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="30" t="s">
         <v>100</v>
       </c>
@@ -2749,11 +2758,11 @@
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45" t="s">
+      <c r="F17" s="47"/>
+      <c r="G17" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="H17" s="45"/>
+      <c r="H17" s="47"/>
     </row>
     <row r="18" spans="1:8" s="30" customFormat="1">
       <c r="A18" s="32"/>
